--- a/income.xlsx
+++ b/income.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,6 +550,60 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>IBBL-2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Abbu</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IBBL-2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Abbu</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IBBL-2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Abbu</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/income.xlsx
+++ b/income.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,7 +551,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
         <v>44852</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="2" t="n">
         <v>44852</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="2" t="n">
         <v>44852</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -602,6 +602,42 @@
       </c>
       <c r="D9" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IBBL-2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Abbu</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>IBBL-2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Abbu</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
